--- a/server/tmp/sample.xlsx
+++ b/server/tmp/sample.xlsx
@@ -102,9 +102,6 @@
     <t>AB+</t>
   </si>
   <si>
-    <t>project_manger</t>
-  </si>
-  <si>
     <t>Murugan</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>blood_group</t>
+  </si>
+  <si>
+    <t>project_manager</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="B1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,16 +500,16 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
@@ -541,10 +541,10 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <v>9777222223</v>
@@ -579,10 +579,10 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3">
         <v>9777222224</v>
@@ -617,10 +617,10 @@
         <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4">
         <v>9777222225</v>
@@ -655,10 +655,10 @@
         <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5">
         <v>9777222226</v>
@@ -690,10 +690,10 @@
         <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6">
         <v>9777222227</v>
